--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1248308.01128175</v>
+        <v>1246821.011098034</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7529624.95339015</v>
+        <v>7529624.953390138</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2352875.103663494</v>
+        <v>2352875.103663495</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8332364.213779634</v>
+        <v>8332364.213779635</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.2957827128904</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>271.3168519534398</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398084</v>
       </c>
     </row>
     <row r="4">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -837,7 +837,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>137.3698087026064</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>214.0262960167621</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>320.804374784536</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>197.6082553303757</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -913,10 +913,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -1037,7 +1037,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810346</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>35.54992607645629</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1141,13 +1141,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>264.7856695359752</v>
+        <v>267.8583632145848</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>62.17807828502601</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1384,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.2898298336167</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>304.2029779656798</v>
+        <v>268.8745681981363</v>
       </c>
       <c r="I11" t="n">
-        <v>29.15490066546219</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>125.9259454362165</v>
       </c>
       <c r="T11" t="n">
         <v>218.4471662669313</v>
@@ -1429,7 +1429,7 @@
         <v>254.4617931084866</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>124.2978342817915</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>186.7038955754352</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1609,13 +1609,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.94970840543671</v>
+        <v>40.77812766975414</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>125.9259454362165</v>
       </c>
       <c r="T14" t="n">
-        <v>218.4471662669313</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>54.74968904845034</v>
+        <v>254.4617931084866</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>67.50669282849398</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>186.7038955754352</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1855,13 +1855,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.82010792585</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>404.2898298336167</v>
       </c>
       <c r="H17" t="n">
-        <v>304.2029779656798</v>
+        <v>304.2029779656805</v>
       </c>
       <c r="I17" t="n">
         <v>71.94970840543671</v>
@@ -2007,22 +2007,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.7826469229764</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>29.5847706962319</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>37.50368435947823</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="C22" t="n">
-        <v>100.5225091516552</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>144.8438584144475</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>17.97197037204645</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9615737930588</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>218.4471662669313</v>
       </c>
       <c r="U26" t="n">
-        <v>254.4617931084866</v>
+        <v>254.4617931084875</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.4203637486101</v>
+        <v>100.9219908839223</v>
       </c>
       <c r="H28" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.04159302170678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,10 +2848,10 @@
         <v>218.4471662669313</v>
       </c>
       <c r="U29" t="n">
-        <v>254.4617931084866</v>
+        <v>254.4617931084875</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168846</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2970,7 +2970,7 @@
         <v>146.7108542792373</v>
       </c>
       <c r="I31" t="n">
-        <v>61.18889879181069</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>224.0726657175811</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213914</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>135.6972564184136</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V34" t="n">
-        <v>89.52048345515284</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I35" t="n">
-        <v>71.94970840543671</v>
+        <v>71.94970840543731</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213914</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3432,19 +3432,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>148.1807829744489</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>56.25505451910116</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798634</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3523,7 +3523,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I38" t="n">
-        <v>71.94970840543668</v>
+        <v>71.94970840543731</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T40" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9615737930588</v>
       </c>
       <c r="V40" t="n">
-        <v>15.50160391829378</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>227.9837894001872</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3751,10 +3751,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>390.891750742369</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>125.9259454362165</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.4471662669313</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4617931084866</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>285.6613510727534</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>168.8924844179744</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>167.5812087437478</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.2898298336167</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>212.3138473024649</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.94970840543668</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>125.9259454362165</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.4471662669313</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4617931084866</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>248.9386392229518</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4146,10 +4146,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>48.38260298869402</v>
       </c>
       <c r="S46" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>59.77659222467178</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.731938909628</v>
+        <v>1162.388731954239</v>
       </c>
       <c r="C2" t="n">
-        <v>1683.647752263302</v>
+        <v>752.2641412675088</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.183822356362</v>
+        <v>751.8406154009733</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.784041838291</v>
+        <v>741.5408039582741</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>724.5507959523657</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>315.8225118451978</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,25 +4333,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M2" t="n">
-        <v>295.9505570973564</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521598</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4363,19 +4363,19 @@
         <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.912714533713</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1695.912714533713</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.912714533713</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X2" t="n">
-        <v>1695.912714533713</v>
+        <v>1168.569507578324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1695.912714533713</v>
+        <v>1168.569507578324</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>497.571341894901</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M3" t="n">
-        <v>497.571341894901</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1156.690402913334</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="C4" t="n">
-        <v>1156.690402913334</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D4" t="n">
-        <v>1156.690402913334</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E4" t="n">
-        <v>1156.690402913334</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>992.0592770239257</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>824.8088859494691</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1816.589795035412</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1677.832412507527</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>1395.034265053651</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V4" t="n">
-        <v>1395.034265053651</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W4" t="n">
-        <v>1395.034265053651</v>
+        <v>1269.703086131142</v>
       </c>
       <c r="X4" t="n">
-        <v>1156.690402913334</v>
+        <v>1031.359223990826</v>
       </c>
       <c r="Y4" t="n">
-        <v>1156.690402913334</v>
+        <v>1031.359223990826</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>673.5953885690503</v>
+        <v>477.5107577130435</v>
       </c>
       <c r="C5" t="n">
-        <v>667.5112019227245</v>
+        <v>471.4265710667177</v>
       </c>
       <c r="D5" t="n">
-        <v>263.047272015785</v>
+        <v>471.0030452001823</v>
       </c>
       <c r="E5" t="n">
-        <v>63.44297370227418</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1481.356235076093</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W5" t="n">
-        <v>1481.356235076093</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X5" t="n">
-        <v>1080.712837245046</v>
+        <v>1202.492253779636</v>
       </c>
       <c r="Y5" t="n">
-        <v>679.7761641931357</v>
+        <v>801.5555807277264</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4685,13 +4685,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>800.5109188153651</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>800.5109188153651</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
         <v>800.5109188153651</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1263.590479566917</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="U7" t="n">
-        <v>1263.590479566917</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="V7" t="n">
-        <v>1263.590479566917</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="W7" t="n">
-        <v>1263.590479566917</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="X7" t="n">
-        <v>1025.246617426601</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>800.5109188153651</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1946.792430650117</v>
+        <v>1545.855757598208</v>
       </c>
       <c r="C8" t="n">
-        <v>1536.667839963387</v>
+        <v>1135.731166911478</v>
       </c>
       <c r="D8" t="n">
-        <v>1132.203910056448</v>
+        <v>731.2672370045384</v>
       </c>
       <c r="E8" t="n">
-        <v>864.7436377978871</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F8" t="n">
-        <v>847.7536297919787</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G8" t="n">
         <v>439.0253456848109</v>
@@ -4804,25 +4804,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4849,7 +4849,7 @@
         <v>1952.973206274203</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.973206274203</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.227134123859</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N9" t="n">
-        <v>1207.227134123859</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O9" t="n">
-        <v>1207.227134123859</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P9" t="n">
-        <v>1724.070068790184</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2073.914533474168</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1022.8117031743</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>1485.891263925851</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>1485.891263925851</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>1247.547401785535</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y10" t="n">
-        <v>1022.8117031743</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2051.394488588682</v>
+        <v>1173.422336190205</v>
       </c>
       <c r="C11" t="n">
-        <v>2051.394488588682</v>
+        <v>1173.422336190205</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.930558681743</v>
+        <v>1173.422336190205</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.590343198639</v>
+        <v>759.0821207071015</v>
       </c>
       <c r="F11" t="n">
-        <v>811.559931152327</v>
+        <v>338.051708660789</v>
       </c>
       <c r="G11" t="n">
-        <v>403.1863656638251</v>
+        <v>338.051708660789</v>
       </c>
       <c r="H11" t="n">
-        <v>95.91063034495659</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="I11" t="n">
-        <v>66.46123573337862</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="J11" t="n">
-        <v>66.46123573337862</v>
+        <v>350.1538912048547</v>
       </c>
       <c r="K11" t="n">
-        <v>153.3315411708063</v>
+        <v>350.1538912048547</v>
       </c>
       <c r="L11" t="n">
-        <v>920.7862519557224</v>
+        <v>350.1538912048547</v>
       </c>
       <c r="M11" t="n">
-        <v>1743.244044156283</v>
+        <v>805.3890990076976</v>
       </c>
       <c r="N11" t="n">
-        <v>2558.458853454517</v>
+        <v>1620.603908305932</v>
       </c>
       <c r="O11" t="n">
-        <v>3260.666461208838</v>
+        <v>2322.811516060253</v>
       </c>
       <c r="P11" t="n">
-        <v>3260.666461208838</v>
+        <v>2901.96211602468</v>
       </c>
       <c r="Q11" t="n">
-        <v>3260.666461208838</v>
+        <v>3260.666461208837</v>
       </c>
       <c r="R11" t="n">
-        <v>3323.06178666893</v>
+        <v>3323.061786668929</v>
       </c>
       <c r="S11" t="n">
-        <v>3323.06178666893</v>
+        <v>3195.863861985882</v>
       </c>
       <c r="T11" t="n">
-        <v>3102.408083369</v>
+        <v>2975.210158685951</v>
       </c>
       <c r="U11" t="n">
-        <v>2845.375969118003</v>
+        <v>2718.178044434955</v>
       </c>
       <c r="V11" t="n">
-        <v>2845.375969118003</v>
+        <v>2368.340489771435</v>
       </c>
       <c r="W11" t="n">
-        <v>2461.615668253171</v>
+        <v>1984.580188906604</v>
       </c>
       <c r="X11" t="n">
-        <v>2461.615668253171</v>
+        <v>1984.580188906604</v>
       </c>
       <c r="Y11" t="n">
-        <v>2461.615668253171</v>
+        <v>1583.643515854694</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>256.389900727972</v>
       </c>
       <c r="G12" t="n">
-        <v>149.5895792353074</v>
+        <v>149.5895792353073</v>
       </c>
       <c r="H12" t="n">
-        <v>80.67534963496465</v>
+        <v>80.67534963496462</v>
       </c>
       <c r="I12" t="n">
-        <v>66.46123573337862</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="J12" t="n">
-        <v>66.46123573337862</v>
+        <v>276.8483699441813</v>
       </c>
       <c r="K12" t="n">
-        <v>66.46123573337862</v>
+        <v>762.6918641908019</v>
       </c>
       <c r="L12" t="n">
-        <v>66.46123573337862</v>
+        <v>762.6918641908019</v>
       </c>
       <c r="M12" t="n">
-        <v>888.9190279339389</v>
+        <v>1088.166179870973</v>
       </c>
       <c r="N12" t="n">
-        <v>888.9190279339389</v>
+        <v>1088.166179870973</v>
       </c>
       <c r="O12" t="n">
-        <v>1637.133663873884</v>
+        <v>1088.166179870973</v>
       </c>
       <c r="P12" t="n">
-        <v>1726.501380354948</v>
+        <v>1685.392654352354</v>
       </c>
       <c r="Q12" t="n">
-        <v>2100.09041342333</v>
+        <v>2058.981687420735</v>
       </c>
       <c r="R12" t="n">
         <v>2100.09041342333</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1149.436289590181</v>
+        <v>363.1079761330676</v>
       </c>
       <c r="C13" t="n">
-        <v>978.3429171518974</v>
+        <v>192.0146036947841</v>
       </c>
       <c r="D13" t="n">
-        <v>818.8482724748073</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="E13" t="n">
-        <v>657.9374573431268</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="F13" t="n">
-        <v>493.306331453718</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="G13" t="n">
-        <v>326.2150549399705</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="H13" t="n">
-        <v>178.0222728397308</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="I13" t="n">
-        <v>66.46123573337862</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="J13" t="n">
-        <v>91.56932153181737</v>
+        <v>91.56932153181734</v>
       </c>
       <c r="K13" t="n">
         <v>264.2399924590774</v>
@@ -5226,25 +5226,25 @@
         <v>1750.461488106001</v>
       </c>
       <c r="S13" t="n">
-        <v>1750.461488106001</v>
+        <v>1566.842652830268</v>
       </c>
       <c r="T13" t="n">
-        <v>1750.461488106001</v>
+        <v>1566.842652830268</v>
       </c>
       <c r="U13" t="n">
-        <v>1750.461488106001</v>
+        <v>1566.842652830268</v>
       </c>
       <c r="V13" t="n">
-        <v>1750.461488106001</v>
+        <v>1292.956907769789</v>
       </c>
       <c r="W13" t="n">
-        <v>1750.461488106001</v>
+        <v>1013.887243278664</v>
       </c>
       <c r="X13" t="n">
-        <v>1561.871694595461</v>
+        <v>775.5433811383473</v>
       </c>
       <c r="Y13" t="n">
-        <v>1337.135995984225</v>
+        <v>550.807682527112</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>974.5083363995991</v>
+        <v>1343.270196322607</v>
       </c>
       <c r="C14" t="n">
-        <v>974.5083363995991</v>
+        <v>933.1456056358771</v>
       </c>
       <c r="D14" t="n">
-        <v>974.5083363995991</v>
+        <v>528.6816757289376</v>
       </c>
       <c r="E14" t="n">
-        <v>560.1681209164958</v>
+        <v>528.6816757289376</v>
       </c>
       <c r="F14" t="n">
-        <v>139.1377088701834</v>
+        <v>107.6512636826252</v>
       </c>
       <c r="G14" t="n">
-        <v>139.1377088701834</v>
+        <v>107.6512636826252</v>
       </c>
       <c r="H14" t="n">
-        <v>139.1377088701834</v>
+        <v>107.6512636826252</v>
       </c>
       <c r="I14" t="n">
-        <v>66.46123573337862</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="J14" t="n">
-        <v>66.46123573337862</v>
+        <v>215.7629951231274</v>
       </c>
       <c r="K14" t="n">
-        <v>648.8443567156231</v>
+        <v>798.1461161053719</v>
       </c>
       <c r="L14" t="n">
-        <v>648.8443567156231</v>
+        <v>798.1461161053719</v>
       </c>
       <c r="M14" t="n">
-        <v>1471.302148916183</v>
+        <v>1620.603908305932</v>
       </c>
       <c r="N14" t="n">
-        <v>2041.703578950182</v>
+        <v>1620.603908305932</v>
       </c>
       <c r="O14" t="n">
-        <v>2743.911186704504</v>
+        <v>2322.811516060253</v>
       </c>
       <c r="P14" t="n">
-        <v>3323.06178666893</v>
+        <v>2901.96211602468</v>
       </c>
       <c r="Q14" t="n">
-        <v>3323.06178666893</v>
+        <v>3260.666461208837</v>
       </c>
       <c r="R14" t="n">
-        <v>3323.06178666893</v>
+        <v>3323.061786668929</v>
       </c>
       <c r="S14" t="n">
-        <v>3195.863861985883</v>
+        <v>3195.863861985882</v>
       </c>
       <c r="T14" t="n">
-        <v>2975.210158685953</v>
+        <v>3195.863861985882</v>
       </c>
       <c r="U14" t="n">
-        <v>2919.907442475397</v>
+        <v>2938.831747734886</v>
       </c>
       <c r="V14" t="n">
-        <v>2570.069887811877</v>
+        <v>2938.831747734886</v>
       </c>
       <c r="W14" t="n">
-        <v>2186.309586947046</v>
+        <v>2555.071446870054</v>
       </c>
       <c r="X14" t="n">
-        <v>1785.666189115998</v>
+        <v>2154.428049039007</v>
       </c>
       <c r="Y14" t="n">
-        <v>1384.729516064089</v>
+        <v>1753.491375987096</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>256.389900727972</v>
       </c>
       <c r="G15" t="n">
-        <v>149.5895792353074</v>
+        <v>149.5895792353073</v>
       </c>
       <c r="H15" t="n">
-        <v>80.67534963496465</v>
+        <v>80.67534963496462</v>
       </c>
       <c r="I15" t="n">
-        <v>66.46123573337862</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="J15" t="n">
-        <v>66.46123573337862</v>
+        <v>276.8483699441813</v>
       </c>
       <c r="K15" t="n">
-        <v>66.46123573337862</v>
+        <v>276.8483699441813</v>
       </c>
       <c r="L15" t="n">
-        <v>767.9381809439546</v>
+        <v>276.8483699441813</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.523895220175</v>
+        <v>276.8483699441813</v>
       </c>
       <c r="N15" t="n">
-        <v>2058.981687420735</v>
+        <v>1099.306162144741</v>
       </c>
       <c r="O15" t="n">
-        <v>2058.981687420735</v>
+        <v>1847.520798084686</v>
       </c>
       <c r="P15" t="n">
-        <v>2058.981687420735</v>
+        <v>1847.520798084686</v>
       </c>
       <c r="Q15" t="n">
         <v>2058.981687420735</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1149.436289590181</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="C16" t="n">
-        <v>978.3429171518974</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="D16" t="n">
-        <v>818.8482724748073</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="E16" t="n">
-        <v>657.9374573431268</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="F16" t="n">
-        <v>493.306331453718</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="G16" t="n">
-        <v>326.2150549399705</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="H16" t="n">
-        <v>178.0222728397308</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="I16" t="n">
-        <v>66.46123573337862</v>
+        <v>66.46123573337859</v>
       </c>
       <c r="J16" t="n">
-        <v>91.56932153181737</v>
+        <v>91.56932153181734</v>
       </c>
       <c r="K16" t="n">
         <v>264.2399924590774</v>
@@ -5460,28 +5460,28 @@
         <v>1750.461488106001</v>
       </c>
       <c r="R16" t="n">
-        <v>1750.461488106001</v>
+        <v>1672.34313902928</v>
       </c>
       <c r="S16" t="n">
-        <v>1750.461488106001</v>
+        <v>1604.15456041464</v>
       </c>
       <c r="T16" t="n">
-        <v>1750.461488106001</v>
+        <v>1365.285674514371</v>
       </c>
       <c r="U16" t="n">
-        <v>1750.461488106001</v>
+        <v>1082.496206036534</v>
       </c>
       <c r="V16" t="n">
-        <v>1750.461488106001</v>
+        <v>808.6104609760562</v>
       </c>
       <c r="W16" t="n">
-        <v>1750.461488106001</v>
+        <v>529.5407964849305</v>
       </c>
       <c r="X16" t="n">
-        <v>1561.871694595461</v>
+        <v>291.1969343446139</v>
       </c>
       <c r="Y16" t="n">
-        <v>1337.135995984225</v>
+        <v>66.46123573337859</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1311.163691508387</v>
       </c>
       <c r="F17" t="n">
-        <v>890.1332794620737</v>
+        <v>890.1332794620744</v>
       </c>
       <c r="G17" t="n">
-        <v>481.7597139735719</v>
+        <v>481.7597139735726</v>
       </c>
       <c r="H17" t="n">
         <v>174.4839786547034</v>
@@ -5594,28 +5594,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J18" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K18" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="L18" t="n">
-        <v>101.8075055178986</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="M18" t="n">
-        <v>101.8075055178986</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="N18" t="n">
-        <v>789.9955727865237</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="O18" t="n">
-        <v>1538.210208726469</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P18" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q18" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R18" t="n">
         <v>2135.43668320785</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>864.3770995659303</v>
+        <v>593.3063377649526</v>
       </c>
       <c r="C19" t="n">
-        <v>693.2837271276468</v>
+        <v>422.2129653266691</v>
       </c>
       <c r="D19" t="n">
-        <v>693.2837271276468</v>
+        <v>262.7183206495791</v>
       </c>
       <c r="E19" t="n">
-        <v>693.2837271276468</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F19" t="n">
-        <v>528.652601238238</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G19" t="n">
-        <v>361.5613247244904</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H19" t="n">
-        <v>213.3685426242508</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I19" t="n">
         <v>101.8075055178986</v>
@@ -5703,22 +5703,22 @@
         <v>1602.188922614788</v>
       </c>
       <c r="T19" t="n">
-        <v>1602.188922614788</v>
+        <v>1572.305315850917</v>
       </c>
       <c r="U19" t="n">
-        <v>1602.188922614788</v>
+        <v>1572.305315850917</v>
       </c>
       <c r="V19" t="n">
-        <v>1328.30317755431</v>
+        <v>1298.419570790439</v>
       </c>
       <c r="W19" t="n">
-        <v>1290.420668100291</v>
+        <v>1019.349906299313</v>
       </c>
       <c r="X19" t="n">
-        <v>1052.076805959975</v>
+        <v>781.0060441589969</v>
       </c>
       <c r="Y19" t="n">
-        <v>1052.076805959975</v>
+        <v>781.0060441589969</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C20" t="n">
-        <v>2129.96783689843</v>
+        <v>2129.967836898428</v>
       </c>
       <c r="D20" t="n">
-        <v>1725.50390699149</v>
+        <v>1725.503906991488</v>
       </c>
       <c r="E20" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508385</v>
       </c>
       <c r="F20" t="n">
-        <v>890.1332794620737</v>
+        <v>890.1332794620726</v>
       </c>
       <c r="G20" t="n">
-        <v>481.7597139735719</v>
+        <v>481.7597139735717</v>
       </c>
       <c r="H20" t="n">
         <v>174.4839786547034</v>
@@ -5752,10 +5752,10 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J20" t="n">
-        <v>385.5001609893744</v>
+        <v>385.5001609893748</v>
       </c>
       <c r="K20" t="n">
-        <v>967.8832819716189</v>
+        <v>967.8832819716192</v>
       </c>
       <c r="L20" t="n">
         <v>1735.337992756535</v>
@@ -5782,22 +5782,22 @@
         <v>4963.177351211883</v>
       </c>
       <c r="T20" t="n">
-        <v>4742.523647911953</v>
+        <v>4742.523647911952</v>
       </c>
       <c r="U20" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660956</v>
       </c>
       <c r="V20" t="n">
-        <v>4135.653978997438</v>
+        <v>4135.653978997436</v>
       </c>
       <c r="W20" t="n">
-        <v>3751.893678132607</v>
+        <v>3751.893678132605</v>
       </c>
       <c r="X20" t="n">
-        <v>3351.250280301559</v>
+        <v>3351.250280301557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2950.313607249649</v>
+        <v>2950.313607249647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J21" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K21" t="n">
-        <v>587.6509997645192</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="L21" t="n">
-        <v>1289.127944975095</v>
+        <v>1013.671584939277</v>
       </c>
       <c r="M21" t="n">
-        <v>1289.127944975095</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="N21" t="n">
-        <v>1289.127944975095</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="O21" t="n">
-        <v>1289.127944975095</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P21" t="n">
-        <v>1886.354419456476</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q21" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R21" t="n">
         <v>2135.43668320785</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>967.0342928681525</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="C22" t="n">
-        <v>865.4964048361776</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="D22" t="n">
-        <v>706.0017601590876</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="E22" t="n">
-        <v>545.0909450274071</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F22" t="n">
-        <v>380.4598191379984</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G22" t="n">
-        <v>213.3685426242508</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H22" t="n">
-        <v>213.3685426242508</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I22" t="n">
         <v>101.8075055178986</v>
@@ -5934,28 +5934,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R22" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S22" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T22" t="n">
-        <v>1707.689408813801</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U22" t="n">
-        <v>1707.689408813801</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.803663753323</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W22" t="n">
-        <v>1154.733999262197</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X22" t="n">
-        <v>1154.733999262197</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y22" t="n">
-        <v>1154.733999262197</v>
+        <v>248.1144332092604</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C23" t="n">
-        <v>2129.96783689843</v>
+        <v>2129.967836898428</v>
       </c>
       <c r="D23" t="n">
-        <v>1725.50390699149</v>
+        <v>1725.503906991488</v>
       </c>
       <c r="E23" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508385</v>
       </c>
       <c r="F23" t="n">
-        <v>890.1332794620738</v>
+        <v>890.133279462073</v>
       </c>
       <c r="G23" t="n">
         <v>481.7597139735719</v>
@@ -5989,22 +5989,22 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J23" t="n">
-        <v>385.5001609893746</v>
+        <v>385.5001609893748</v>
       </c>
       <c r="K23" t="n">
         <v>967.8832819716192</v>
       </c>
       <c r="L23" t="n">
-        <v>1735.337992756536</v>
+        <v>1735.337992756535</v>
       </c>
       <c r="M23" t="n">
-        <v>2572.702588233699</v>
+        <v>2572.702588233698</v>
       </c>
       <c r="N23" t="n">
-        <v>3387.917397531934</v>
+        <v>3387.917397531933</v>
       </c>
       <c r="O23" t="n">
-        <v>4090.125005286255</v>
+        <v>4090.125005286254</v>
       </c>
       <c r="P23" t="n">
         <v>4669.275605250681</v>
@@ -6022,19 +6022,19 @@
         <v>4742.523647911953</v>
       </c>
       <c r="U23" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660956</v>
       </c>
       <c r="V23" t="n">
-        <v>4135.653978997438</v>
+        <v>4135.653978997436</v>
       </c>
       <c r="W23" t="n">
-        <v>3751.893678132607</v>
+        <v>3751.893678132605</v>
       </c>
       <c r="X23" t="n">
-        <v>3351.250280301559</v>
+        <v>3351.250280301557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2950.313607249649</v>
+        <v>2950.313607249647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J24" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K24" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="L24" t="n">
-        <v>101.8075055178986</v>
+        <v>1499.515079185898</v>
       </c>
       <c r="M24" t="n">
-        <v>991.9163796280333</v>
+        <v>1499.515079185898</v>
       </c>
       <c r="N24" t="n">
-        <v>1913.953703481901</v>
+        <v>1499.515079185898</v>
       </c>
       <c r="O24" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="P24" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q24" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R24" t="n">
         <v>2135.43668320785</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3552.681951213668</v>
+        <v>711.719017720764</v>
       </c>
       <c r="C25" t="n">
-        <v>3552.681951213668</v>
+        <v>540.6256452824805</v>
       </c>
       <c r="D25" t="n">
-        <v>3552.681951213668</v>
+        <v>540.6256452824805</v>
       </c>
       <c r="E25" t="n">
-        <v>3406.375023522307</v>
+        <v>379.7148301508</v>
       </c>
       <c r="F25" t="n">
-        <v>3406.375023522307</v>
+        <v>379.7148301508</v>
       </c>
       <c r="G25" t="n">
-        <v>3406.375023522307</v>
+        <v>361.5613247244904</v>
       </c>
       <c r="H25" t="n">
-        <v>3406.375023522307</v>
+        <v>213.3685426242508</v>
       </c>
       <c r="I25" t="n">
-        <v>3406.375023522307</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J25" t="n">
-        <v>3431.483109320746</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K25" t="n">
-        <v>3604.153780248006</v>
+        <v>299.5862622435974</v>
       </c>
       <c r="L25" t="n">
-        <v>3887.236121903256</v>
+        <v>582.6686038988482</v>
       </c>
       <c r="M25" t="n">
-        <v>4200.94576456317</v>
+        <v>896.3782465587622</v>
       </c>
       <c r="N25" t="n">
-        <v>4505.648871775115</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O25" t="n">
-        <v>4787.252048623631</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P25" t="n">
-        <v>5011.788712503886</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q25" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R25" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S25" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T25" t="n">
-        <v>4851.506389994662</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="U25" t="n">
-        <v>4568.716921516824</v>
+        <v>1503.018289412684</v>
       </c>
       <c r="V25" t="n">
-        <v>4294.831176456346</v>
+        <v>1229.132544352206</v>
       </c>
       <c r="W25" t="n">
-        <v>4015.76151196522</v>
+        <v>950.0628798610805</v>
       </c>
       <c r="X25" t="n">
-        <v>3777.417649824903</v>
+        <v>711.719017720764</v>
       </c>
       <c r="Y25" t="n">
-        <v>3552.681951213668</v>
+        <v>711.719017720764</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C26" t="n">
-        <v>2129.96783689843</v>
+        <v>2129.967836898429</v>
       </c>
       <c r="D26" t="n">
-        <v>1725.50390699149</v>
+        <v>1725.503906991489</v>
       </c>
       <c r="E26" t="n">
-        <v>1311.163691508387</v>
+        <v>1311.163691508386</v>
       </c>
       <c r="F26" t="n">
-        <v>890.1332794620748</v>
+        <v>890.1332794620737</v>
       </c>
       <c r="G26" t="n">
-        <v>481.7597139735726</v>
+        <v>481.7597139735719</v>
       </c>
       <c r="H26" t="n">
-        <v>174.4839786547036</v>
+        <v>174.4839786547034</v>
       </c>
       <c r="I26" t="n">
         <v>101.8075055178986</v>
@@ -6247,31 +6247,31 @@
         <v>4669.275605250681</v>
       </c>
       <c r="Q26" t="n">
-        <v>5027.979950434839</v>
+        <v>5027.979950434838</v>
       </c>
       <c r="R26" t="n">
-        <v>5090.375275894931</v>
+        <v>5090.37527589493</v>
       </c>
       <c r="S26" t="n">
-        <v>4963.177351211884</v>
+        <v>4963.177351211883</v>
       </c>
       <c r="T26" t="n">
-        <v>4742.523647911954</v>
+        <v>4742.523647911953</v>
       </c>
       <c r="U26" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660956</v>
       </c>
       <c r="V26" t="n">
-        <v>4135.653978997438</v>
+        <v>4135.653978997437</v>
       </c>
       <c r="W26" t="n">
-        <v>3751.893678132607</v>
+        <v>3751.893678132606</v>
       </c>
       <c r="X26" t="n">
-        <v>3351.250280301559</v>
+        <v>3351.250280301558</v>
       </c>
       <c r="Y26" t="n">
-        <v>2950.313607249649</v>
+        <v>2950.313607249648</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>291.736170512492</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9358490198274</v>
+        <v>184.9358490198273</v>
       </c>
       <c r="H27" t="n">
-        <v>116.0216194194847</v>
+        <v>116.0216194194846</v>
       </c>
       <c r="I27" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J27" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K27" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="L27" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="M27" t="n">
-        <v>465.184723414037</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="N27" t="n">
-        <v>1387.222047267905</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="O27" t="n">
-        <v>2135.43668320785</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P27" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q27" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R27" t="n">
         <v>2135.43668320785</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3721.659082136295</v>
+        <v>806.8087798045597</v>
       </c>
       <c r="C28" t="n">
-        <v>3721.659082136295</v>
+        <v>635.7154073662762</v>
       </c>
       <c r="D28" t="n">
-        <v>3721.659082136295</v>
+        <v>476.2207626891862</v>
       </c>
       <c r="E28" t="n">
-        <v>3721.659082136295</v>
+        <v>315.3099475575057</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.659082136295</v>
+        <v>315.3099475575057</v>
       </c>
       <c r="G28" t="n">
-        <v>3554.567805622547</v>
+        <v>213.3685426242508</v>
       </c>
       <c r="H28" t="n">
-        <v>3406.375023522308</v>
+        <v>213.3685426242508</v>
       </c>
       <c r="I28" t="n">
-        <v>3406.375023522308</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J28" t="n">
-        <v>3431.483109320747</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K28" t="n">
-        <v>3604.153780248007</v>
+        <v>299.5862622435974</v>
       </c>
       <c r="L28" t="n">
-        <v>3887.236121903257</v>
+        <v>582.6686038988482</v>
       </c>
       <c r="M28" t="n">
-        <v>4200.945764563171</v>
+        <v>896.3782465587622</v>
       </c>
       <c r="N28" t="n">
-        <v>4505.648871775116</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O28" t="n">
-        <v>4787.252048623632</v>
+        <v>1482.684530619225</v>
       </c>
       <c r="P28" t="n">
-        <v>5011.788712503887</v>
+        <v>1707.22119449948</v>
       </c>
       <c r="Q28" t="n">
-        <v>5090.375275894931</v>
+        <v>1785.807757890524</v>
       </c>
       <c r="R28" t="n">
-        <v>5012.256926818211</v>
+        <v>1785.807757890524</v>
       </c>
       <c r="S28" t="n">
-        <v>4828.638091542477</v>
+        <v>1785.807757890524</v>
       </c>
       <c r="T28" t="n">
-        <v>4589.769205642208</v>
+        <v>1785.807757890524</v>
       </c>
       <c r="U28" t="n">
-        <v>4306.979737164371</v>
+        <v>1785.807757890524</v>
       </c>
       <c r="V28" t="n">
-        <v>4033.093992103893</v>
+        <v>1511.922012830046</v>
       </c>
       <c r="W28" t="n">
-        <v>3754.024327612767</v>
+        <v>1232.852348338921</v>
       </c>
       <c r="X28" t="n">
-        <v>3754.024327612767</v>
+        <v>994.508486198604</v>
       </c>
       <c r="Y28" t="n">
-        <v>3721.659082136295</v>
+        <v>994.508486198604</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J29" t="n">
-        <v>385.5001609893748</v>
+        <v>385.5001609893752</v>
       </c>
       <c r="K29" t="n">
-        <v>967.8832819716192</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L29" t="n">
-        <v>1735.337992756535</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M29" t="n">
-        <v>2572.702588233698</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N29" t="n">
-        <v>3387.917397531933</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O29" t="n">
-        <v>4090.125005286254</v>
+        <v>4090.125005286255</v>
       </c>
       <c r="P29" t="n">
-        <v>4669.275605250681</v>
+        <v>4669.275605250682</v>
       </c>
       <c r="Q29" t="n">
         <v>5027.979950434838</v>
@@ -6496,7 +6496,7 @@
         <v>4742.523647911953</v>
       </c>
       <c r="U29" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660956</v>
       </c>
       <c r="V29" t="n">
         <v>4135.653978997437</v>
@@ -6542,28 +6542,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J30" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K30" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="L30" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="M30" t="n">
-        <v>991.9163796280333</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="N30" t="n">
-        <v>1913.953703481901</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="O30" t="n">
-        <v>2135.43668320785</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P30" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q30" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R30" t="n">
         <v>2135.43668320785</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4439.596008749334</v>
+        <v>854.1945422593274</v>
       </c>
       <c r="C31" t="n">
-        <v>4268.50263631105</v>
+        <v>854.1945422593274</v>
       </c>
       <c r="D31" t="n">
-        <v>4109.00799163396</v>
+        <v>854.1945422593274</v>
       </c>
       <c r="E31" t="n">
-        <v>3948.09717650228</v>
+        <v>693.2837271276468</v>
       </c>
       <c r="F31" t="n">
-        <v>3783.466050612871</v>
+        <v>528.652601238238</v>
       </c>
       <c r="G31" t="n">
-        <v>3616.374774099123</v>
+        <v>361.5613247244904</v>
       </c>
       <c r="H31" t="n">
-        <v>3468.181991998883</v>
+        <v>213.3685426242508</v>
       </c>
       <c r="I31" t="n">
-        <v>3406.375023522307</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J31" t="n">
-        <v>3431.483109320746</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K31" t="n">
-        <v>3604.153780248006</v>
+        <v>299.5862622435974</v>
       </c>
       <c r="L31" t="n">
-        <v>3887.236121903256</v>
+        <v>582.6686038988482</v>
       </c>
       <c r="M31" t="n">
-        <v>4200.94576456317</v>
+        <v>896.3782465587622</v>
       </c>
       <c r="N31" t="n">
-        <v>4505.648871775115</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O31" t="n">
-        <v>4787.252048623631</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P31" t="n">
-        <v>5011.788712503886</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q31" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R31" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S31" t="n">
-        <v>5090.37527589493</v>
+        <v>1602.188922614788</v>
       </c>
       <c r="T31" t="n">
-        <v>5090.37527589493</v>
+        <v>1363.320036714519</v>
       </c>
       <c r="U31" t="n">
-        <v>5090.37527589493</v>
+        <v>1080.530568236682</v>
       </c>
       <c r="V31" t="n">
-        <v>5090.37527589493</v>
+        <v>854.1945422593274</v>
       </c>
       <c r="W31" t="n">
-        <v>5090.37527589493</v>
+        <v>854.1945422593274</v>
       </c>
       <c r="X31" t="n">
-        <v>4852.031413754614</v>
+        <v>854.1945422593274</v>
       </c>
       <c r="Y31" t="n">
-        <v>4627.295715143378</v>
+        <v>854.1945422593274</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.092427585158</v>
+        <v>2540.092427585159</v>
       </c>
       <c r="C32" t="n">
-        <v>2129.967836898429</v>
+        <v>2129.96783689843</v>
       </c>
       <c r="D32" t="n">
-        <v>1725.503906991489</v>
+        <v>1725.50390699149</v>
       </c>
       <c r="E32" t="n">
         <v>1311.163691508386</v>
       </c>
       <c r="F32" t="n">
-        <v>890.1332794620737</v>
+        <v>890.1332794620738</v>
       </c>
       <c r="G32" t="n">
         <v>481.7597139735719</v>
@@ -6703,19 +6703,19 @@
         <v>385.5001609893752</v>
       </c>
       <c r="K32" t="n">
-        <v>967.883281971619</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L32" t="n">
-        <v>1735.337992756535</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M32" t="n">
-        <v>2572.702588233698</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N32" t="n">
-        <v>3387.917397531933</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O32" t="n">
-        <v>4090.125005286254</v>
+        <v>4090.125005286255</v>
       </c>
       <c r="P32" t="n">
         <v>4669.275605250681</v>
@@ -6739,13 +6739,13 @@
         <v>4135.653978997438</v>
       </c>
       <c r="W32" t="n">
-        <v>3751.893678132606</v>
+        <v>3751.893678132607</v>
       </c>
       <c r="X32" t="n">
         <v>3351.250280301559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2950.313607249648</v>
+        <v>2950.313607249649</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J33" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K33" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="L33" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="M33" t="n">
-        <v>991.9163796280333</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="N33" t="n">
-        <v>1387.222047267905</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="O33" t="n">
-        <v>2135.43668320785</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P33" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q33" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R33" t="n">
         <v>2135.43668320785</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>765.5340954910189</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="C34" t="n">
-        <v>594.4407230527354</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="D34" t="n">
-        <v>594.4407230527354</v>
+        <v>551.6993492837223</v>
       </c>
       <c r="E34" t="n">
-        <v>433.5299079210549</v>
+        <v>414.631413507547</v>
       </c>
       <c r="F34" t="n">
-        <v>268.8987820316462</v>
+        <v>250.0002876181383</v>
       </c>
       <c r="G34" t="n">
-        <v>101.8075055178986</v>
+        <v>250.0002876181383</v>
       </c>
       <c r="H34" t="n">
         <v>101.8075055178986</v>
@@ -6888,22 +6888,22 @@
         <v>1785.807757890522</v>
       </c>
       <c r="T34" t="n">
-        <v>1785.807757890522</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.807757890522</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V34" t="n">
-        <v>1695.383027127741</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W34" t="n">
-        <v>1416.313362636615</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X34" t="n">
-        <v>1177.969500496299</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="Y34" t="n">
-        <v>953.2338018850633</v>
+        <v>711.1939939608123</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.092427585158</v>
+        <v>2540.092427585159</v>
       </c>
       <c r="C35" t="n">
-        <v>2129.967836898429</v>
+        <v>2129.96783689843</v>
       </c>
       <c r="D35" t="n">
-        <v>1725.503906991489</v>
+        <v>1725.50390699149</v>
       </c>
       <c r="E35" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508387</v>
       </c>
       <c r="F35" t="n">
-        <v>890.1332794620737</v>
+        <v>890.1332794620744</v>
       </c>
       <c r="G35" t="n">
-        <v>481.7597139735719</v>
+        <v>481.7597139735726</v>
       </c>
       <c r="H35" t="n">
-        <v>174.4839786547034</v>
+        <v>174.483978654704</v>
       </c>
       <c r="I35" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J35" t="n">
-        <v>385.5001609893752</v>
+        <v>385.5001609893749</v>
       </c>
       <c r="K35" t="n">
         <v>967.8832819716195</v>
@@ -6955,7 +6955,7 @@
         <v>4090.125005286255</v>
       </c>
       <c r="P35" t="n">
-        <v>4669.275605250682</v>
+        <v>4669.275605250683</v>
       </c>
       <c r="Q35" t="n">
         <v>5027.979950434839</v>
@@ -6982,7 +6982,7 @@
         <v>3351.250280301559</v>
       </c>
       <c r="Y35" t="n">
-        <v>2950.313607249648</v>
+        <v>2950.313607249649</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>101.8075055178986</v>
       </c>
       <c r="K36" t="n">
-        <v>101.8075055178986</v>
+        <v>463.1442304475108</v>
       </c>
       <c r="L36" t="n">
-        <v>101.8075055178986</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="M36" t="n">
-        <v>465.184723414037</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="N36" t="n">
-        <v>1387.222047267905</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="O36" t="n">
-        <v>2135.43668320785</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="P36" t="n">
-        <v>2135.43668320785</v>
+        <v>1761.847650139468</v>
       </c>
       <c r="Q36" t="n">
         <v>2135.43668320785</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3886.640599197731</v>
+        <v>1020.151433485292</v>
       </c>
       <c r="C37" t="n">
-        <v>3715.547226759447</v>
+        <v>849.0580610470086</v>
       </c>
       <c r="D37" t="n">
-        <v>3556.052582082357</v>
+        <v>689.5634163699185</v>
       </c>
       <c r="E37" t="n">
-        <v>3406.375023522308</v>
+        <v>528.652601238238</v>
       </c>
       <c r="F37" t="n">
-        <v>3406.375023522308</v>
+        <v>528.652601238238</v>
       </c>
       <c r="G37" t="n">
-        <v>3406.375023522308</v>
+        <v>361.5613247244905</v>
       </c>
       <c r="H37" t="n">
-        <v>3406.375023522308</v>
+        <v>213.3685426242508</v>
       </c>
       <c r="I37" t="n">
-        <v>3406.375023522308</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J37" t="n">
-        <v>3431.483109320747</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K37" t="n">
-        <v>3604.153780248007</v>
+        <v>299.5862622435975</v>
       </c>
       <c r="L37" t="n">
-        <v>3887.236121903257</v>
+        <v>582.6686038988483</v>
       </c>
       <c r="M37" t="n">
-        <v>4200.945764563171</v>
+        <v>896.3782465587623</v>
       </c>
       <c r="N37" t="n">
-        <v>4505.648871775116</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O37" t="n">
-        <v>4787.252048623632</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P37" t="n">
-        <v>5011.788712503887</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q37" t="n">
-        <v>5090.375275894931</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R37" t="n">
-        <v>5090.375275894931</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S37" t="n">
-        <v>5090.375275894931</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T37" t="n">
-        <v>5090.375275894931</v>
+        <v>1728.98447049749</v>
       </c>
       <c r="U37" t="n">
-        <v>5090.375275894931</v>
+        <v>1446.195002019653</v>
       </c>
       <c r="V37" t="n">
-        <v>4816.489530834453</v>
+        <v>1446.195002019653</v>
       </c>
       <c r="W37" t="n">
-        <v>4537.419866343327</v>
+        <v>1446.195002019653</v>
       </c>
       <c r="X37" t="n">
-        <v>4299.076004203011</v>
+        <v>1207.851139879336</v>
       </c>
       <c r="Y37" t="n">
-        <v>4074.340305591775</v>
+        <v>1207.851139879336</v>
       </c>
     </row>
     <row r="38">
@@ -7153,28 +7153,28 @@
         <v>2540.092427585159</v>
       </c>
       <c r="C38" t="n">
-        <v>2129.967836898429</v>
+        <v>2129.96783689843</v>
       </c>
       <c r="D38" t="n">
-        <v>1725.503906991489</v>
+        <v>1725.50390699149</v>
       </c>
       <c r="E38" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508387</v>
       </c>
       <c r="F38" t="n">
-        <v>890.1332794620737</v>
+        <v>890.1332794620744</v>
       </c>
       <c r="G38" t="n">
-        <v>481.7597139735719</v>
+        <v>481.7597139735726</v>
       </c>
       <c r="H38" t="n">
-        <v>174.4839786547034</v>
+        <v>174.483978654704</v>
       </c>
       <c r="I38" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J38" t="n">
-        <v>385.5001609893749</v>
+        <v>385.5001609893748</v>
       </c>
       <c r="K38" t="n">
         <v>967.8832819716195</v>
@@ -7192,7 +7192,7 @@
         <v>4090.125005286255</v>
       </c>
       <c r="P38" t="n">
-        <v>4669.275605250683</v>
+        <v>4669.275605250682</v>
       </c>
       <c r="Q38" t="n">
         <v>5027.979950434839</v>
@@ -7256,22 +7256,22 @@
         <v>101.8075055178986</v>
       </c>
       <c r="K39" t="n">
-        <v>101.8075055178986</v>
+        <v>463.1442304475108</v>
       </c>
       <c r="L39" t="n">
-        <v>101.8075055178986</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="M39" t="n">
-        <v>991.9163796280334</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="N39" t="n">
-        <v>1913.953703481901</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="O39" t="n">
-        <v>2135.43668320785</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="P39" t="n">
-        <v>2135.43668320785</v>
+        <v>1761.847650139468</v>
       </c>
       <c r="Q39" t="n">
         <v>2135.43668320785</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>757.9374636543614</v>
+        <v>864.3770995659303</v>
       </c>
       <c r="C40" t="n">
-        <v>586.8440912160779</v>
+        <v>693.2837271276468</v>
       </c>
       <c r="D40" t="n">
-        <v>427.3494465389879</v>
+        <v>693.2837271276468</v>
       </c>
       <c r="E40" t="n">
-        <v>266.4386314073074</v>
+        <v>693.2837271276468</v>
       </c>
       <c r="F40" t="n">
-        <v>101.8075055178986</v>
+        <v>528.652601238238</v>
       </c>
       <c r="G40" t="n">
-        <v>101.8075055178986</v>
+        <v>361.5613247244905</v>
       </c>
       <c r="H40" t="n">
-        <v>101.8075055178986</v>
+        <v>213.3685426242508</v>
       </c>
       <c r="I40" t="n">
         <v>101.8075055178986</v>
@@ -7356,28 +7356,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R40" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S40" t="n">
-        <v>1707.689408813801</v>
+        <v>1602.188922614788</v>
       </c>
       <c r="T40" t="n">
-        <v>1468.820522913532</v>
+        <v>1602.188922614788</v>
       </c>
       <c r="U40" t="n">
-        <v>1186.031054435695</v>
+        <v>1319.399454136951</v>
       </c>
       <c r="V40" t="n">
-        <v>1170.372868659641</v>
+        <v>1319.399454136951</v>
       </c>
       <c r="W40" t="n">
-        <v>1170.372868659641</v>
+        <v>1319.399454136951</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.372868659641</v>
+        <v>1089.112798177166</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.6371700484058</v>
+        <v>864.3770995659303</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1295.389971810151</v>
+        <v>2111.260536121483</v>
       </c>
       <c r="C41" t="n">
-        <v>885.2653811234214</v>
+        <v>1701.135945434753</v>
       </c>
       <c r="D41" t="n">
-        <v>480.801451216482</v>
+        <v>1296.672015527814</v>
       </c>
       <c r="E41" t="n">
-        <v>66.46123573337863</v>
+        <v>882.3318000447102</v>
       </c>
       <c r="F41" t="n">
-        <v>66.46123573337863</v>
+        <v>461.3013879983978</v>
       </c>
       <c r="G41" t="n">
-        <v>66.46123573337863</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="H41" t="n">
-        <v>66.46123573337863</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="I41" t="n">
-        <v>66.46123573337863</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="J41" t="n">
-        <v>350.1538912048549</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="K41" t="n">
-        <v>350.1538912048549</v>
+        <v>648.8443567156232</v>
       </c>
       <c r="L41" t="n">
-        <v>1117.608601989771</v>
+        <v>1416.299067500539</v>
       </c>
       <c r="M41" t="n">
-        <v>1940.066394190332</v>
+        <v>2238.7568597011</v>
       </c>
       <c r="N41" t="n">
-        <v>2385.206841520348</v>
+        <v>2238.7568597011</v>
       </c>
       <c r="O41" t="n">
-        <v>2385.206841520348</v>
+        <v>2940.964467455421</v>
       </c>
       <c r="P41" t="n">
-        <v>2964.357441484774</v>
+        <v>3323.06178666893</v>
       </c>
       <c r="Q41" t="n">
-        <v>3323.061786668931</v>
+        <v>3323.06178666893</v>
       </c>
       <c r="R41" t="n">
-        <v>3323.061786668931</v>
+        <v>3323.06178666893</v>
       </c>
       <c r="S41" t="n">
-        <v>3195.863861985884</v>
+        <v>3323.06178666893</v>
       </c>
       <c r="T41" t="n">
-        <v>2975.210158685954</v>
+        <v>3323.06178666893</v>
       </c>
       <c r="U41" t="n">
-        <v>2718.178044434957</v>
+        <v>3323.06178666893</v>
       </c>
       <c r="V41" t="n">
-        <v>2368.340489771438</v>
+        <v>3323.06178666893</v>
       </c>
       <c r="W41" t="n">
-        <v>1984.580188906606</v>
+        <v>3323.06178666893</v>
       </c>
       <c r="X41" t="n">
-        <v>1583.936791075559</v>
+        <v>2922.418388837883</v>
       </c>
       <c r="Y41" t="n">
-        <v>1295.389971810151</v>
+        <v>2521.481715785972</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>256.389900727972</v>
       </c>
       <c r="G42" t="n">
-        <v>149.5895792353074</v>
+        <v>149.5895792353073</v>
       </c>
       <c r="H42" t="n">
-        <v>80.67534963496466</v>
+        <v>80.67534963496463</v>
       </c>
       <c r="I42" t="n">
-        <v>66.46123573337863</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="J42" t="n">
-        <v>66.46123573337863</v>
+        <v>276.8483699441813</v>
       </c>
       <c r="K42" t="n">
-        <v>66.46123573337863</v>
+        <v>762.691864190802</v>
       </c>
       <c r="L42" t="n">
-        <v>455.1748290222091</v>
+        <v>1088.166179870972</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.63262122277</v>
+        <v>1088.166179870972</v>
       </c>
       <c r="N42" t="n">
-        <v>2100.09041342333</v>
+        <v>1088.166179870972</v>
       </c>
       <c r="O42" t="n">
-        <v>2100.09041342333</v>
+        <v>1088.166179870972</v>
       </c>
       <c r="P42" t="n">
-        <v>2100.09041342333</v>
+        <v>1685.392654352353</v>
       </c>
       <c r="Q42" t="n">
-        <v>2100.09041342333</v>
+        <v>2058.981687420735</v>
       </c>
       <c r="R42" t="n">
         <v>2100.09041342333</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>889.6824703835889</v>
+        <v>485.7096996170604</v>
       </c>
       <c r="C43" t="n">
-        <v>718.5890979453054</v>
+        <v>485.7096996170604</v>
       </c>
       <c r="D43" t="n">
-        <v>559.0944532682154</v>
+        <v>326.2150549399704</v>
       </c>
       <c r="E43" t="n">
-        <v>398.1836381365349</v>
+        <v>326.2150549399704</v>
       </c>
       <c r="F43" t="n">
-        <v>233.5525122471262</v>
+        <v>326.2150549399704</v>
       </c>
       <c r="G43" t="n">
-        <v>66.46123573337863</v>
+        <v>326.2150549399704</v>
       </c>
       <c r="H43" t="n">
-        <v>66.46123573337863</v>
+        <v>178.0222728397308</v>
       </c>
       <c r="I43" t="n">
-        <v>66.46123573337863</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="J43" t="n">
-        <v>91.56932153181739</v>
+        <v>91.56932153181737</v>
       </c>
       <c r="K43" t="n">
         <v>264.2399924590775</v>
@@ -7593,28 +7593,28 @@
         <v>1750.461488106002</v>
       </c>
       <c r="R43" t="n">
-        <v>1750.461488106002</v>
+        <v>1672.343139029281</v>
       </c>
       <c r="S43" t="n">
-        <v>1750.461488106002</v>
+        <v>1672.343139029281</v>
       </c>
       <c r="T43" t="n">
-        <v>1750.461488106002</v>
+        <v>1672.343139029281</v>
       </c>
       <c r="U43" t="n">
-        <v>1750.461488106002</v>
+        <v>1672.343139029281</v>
       </c>
       <c r="V43" t="n">
-        <v>1581.187539879994</v>
+        <v>1398.457393968803</v>
       </c>
       <c r="W43" t="n">
-        <v>1302.117875388868</v>
+        <v>1119.387729477677</v>
       </c>
       <c r="X43" t="n">
-        <v>1302.117875388868</v>
+        <v>881.0438673373608</v>
       </c>
       <c r="Y43" t="n">
-        <v>1077.382176777633</v>
+        <v>656.3081687261255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1183.000118023649</v>
+        <v>1716.420383856464</v>
       </c>
       <c r="C44" t="n">
-        <v>1183.000118023649</v>
+        <v>1306.295793169734</v>
       </c>
       <c r="D44" t="n">
-        <v>1183.000118023649</v>
+        <v>901.8318632627943</v>
       </c>
       <c r="E44" t="n">
-        <v>1183.000118023649</v>
+        <v>487.491647779691</v>
       </c>
       <c r="F44" t="n">
-        <v>761.9697059773366</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="G44" t="n">
-        <v>353.5961404888348</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="H44" t="n">
-        <v>139.1377088701834</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="I44" t="n">
-        <v>66.46123573337863</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="J44" t="n">
-        <v>66.46123573337863</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="K44" t="n">
-        <v>66.46123573337863</v>
+        <v>648.8443567156232</v>
       </c>
       <c r="L44" t="n">
-        <v>833.9159465182948</v>
+        <v>1416.299067500539</v>
       </c>
       <c r="M44" t="n">
-        <v>1656.373738718855</v>
+        <v>2238.7568597011</v>
       </c>
       <c r="N44" t="n">
-        <v>2322.811516060256</v>
+        <v>2238.7568597011</v>
       </c>
       <c r="O44" t="n">
-        <v>2322.811516060256</v>
+        <v>2940.964467455421</v>
       </c>
       <c r="P44" t="n">
-        <v>2901.962116024682</v>
+        <v>3323.06178666893</v>
       </c>
       <c r="Q44" t="n">
-        <v>3260.666461208839</v>
+        <v>3323.06178666893</v>
       </c>
       <c r="R44" t="n">
-        <v>3323.061786668931</v>
+        <v>3323.06178666893</v>
       </c>
       <c r="S44" t="n">
-        <v>3195.863861985884</v>
+        <v>3323.06178666893</v>
       </c>
       <c r="T44" t="n">
-        <v>2975.210158685954</v>
+        <v>3102.408083368999</v>
       </c>
       <c r="U44" t="n">
-        <v>2718.178044434957</v>
+        <v>3102.408083368999</v>
       </c>
       <c r="V44" t="n">
-        <v>2368.340489771438</v>
+        <v>2752.57052870548</v>
       </c>
       <c r="W44" t="n">
-        <v>1984.580188906606</v>
+        <v>2368.810227840648</v>
       </c>
       <c r="X44" t="n">
-        <v>1583.936791075559</v>
+        <v>2117.357056908374</v>
       </c>
       <c r="Y44" t="n">
-        <v>1183.000118023649</v>
+        <v>1716.420383856464</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1959.706198830403</v>
+        <v>736.7348255848012</v>
       </c>
       <c r="C45" t="n">
-        <v>1825.711127579349</v>
+        <v>602.739754333747</v>
       </c>
       <c r="D45" t="n">
-        <v>1708.813969798741</v>
+        <v>485.8425965531394</v>
       </c>
       <c r="E45" t="n">
-        <v>1588.321153791069</v>
+        <v>365.3497805454674</v>
       </c>
       <c r="F45" t="n">
-        <v>1479.361273973574</v>
+        <v>256.389900727972</v>
       </c>
       <c r="G45" t="n">
-        <v>1372.560952480909</v>
+        <v>149.5895792353073</v>
       </c>
       <c r="H45" t="n">
-        <v>1303.646722880567</v>
+        <v>80.67534963496463</v>
       </c>
       <c r="I45" t="n">
-        <v>1289.432608978981</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="J45" t="n">
-        <v>1289.432608978981</v>
+        <v>276.8483699441813</v>
       </c>
       <c r="K45" t="n">
-        <v>1775.276103225601</v>
+        <v>762.691864190802</v>
       </c>
       <c r="L45" t="n">
-        <v>1775.276103225601</v>
+        <v>1088.166179870972</v>
       </c>
       <c r="M45" t="n">
-        <v>2597.733895426162</v>
+        <v>1088.166179870972</v>
       </c>
       <c r="N45" t="n">
-        <v>3323.061786668931</v>
+        <v>1088.166179870972</v>
       </c>
       <c r="O45" t="n">
-        <v>3323.061786668931</v>
+        <v>1088.166179870972</v>
       </c>
       <c r="P45" t="n">
-        <v>3323.061786668931</v>
+        <v>1685.392654352353</v>
       </c>
       <c r="Q45" t="n">
-        <v>3323.061786668931</v>
+        <v>2058.981687420735</v>
       </c>
       <c r="R45" t="n">
-        <v>3323.061786668931</v>
+        <v>2100.09041342333</v>
       </c>
       <c r="S45" t="n">
-        <v>3218.597064951402</v>
+        <v>1995.6256917058</v>
       </c>
       <c r="T45" t="n">
-        <v>3060.020192832988</v>
+        <v>1837.048819587387</v>
       </c>
       <c r="U45" t="n">
-        <v>2862.681868233904</v>
+        <v>1639.710494988303</v>
       </c>
       <c r="V45" t="n">
-        <v>2648.970341226938</v>
+        <v>1425.998967981337</v>
       </c>
       <c r="W45" t="n">
-        <v>2435.737172963267</v>
+        <v>1212.765799717665</v>
       </c>
       <c r="X45" t="n">
-        <v>2259.41119110216</v>
+        <v>1036.439817856558</v>
       </c>
       <c r="Y45" t="n">
-        <v>2100.00923146599</v>
+        <v>877.0378582203879</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>725.0513444941803</v>
+        <v>722.5911938698414</v>
       </c>
       <c r="C46" t="n">
-        <v>553.9579720558968</v>
+        <v>551.4978214315579</v>
       </c>
       <c r="D46" t="n">
-        <v>394.4633273788068</v>
+        <v>392.0031767544679</v>
       </c>
       <c r="E46" t="n">
-        <v>233.5525122471262</v>
+        <v>231.0923616227873</v>
       </c>
       <c r="F46" t="n">
-        <v>233.5525122471262</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="G46" t="n">
-        <v>66.46123573337863</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="H46" t="n">
-        <v>66.46123573337863</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="I46" t="n">
-        <v>66.46123573337863</v>
+        <v>66.4612357333786</v>
       </c>
       <c r="J46" t="n">
-        <v>91.56932153181739</v>
+        <v>91.56932153181737</v>
       </c>
       <c r="K46" t="n">
         <v>264.2399924590775</v>
@@ -7830,28 +7830,28 @@
         <v>1750.461488106002</v>
       </c>
       <c r="R46" t="n">
-        <v>1750.461488106002</v>
+        <v>1701.590171955806</v>
       </c>
       <c r="S46" t="n">
-        <v>1566.842652830268</v>
+        <v>1701.590171955806</v>
       </c>
       <c r="T46" t="n">
-        <v>1506.462256643731</v>
+        <v>1701.590171955806</v>
       </c>
       <c r="U46" t="n">
-        <v>1223.672788165894</v>
+        <v>1701.590171955806</v>
       </c>
       <c r="V46" t="n">
-        <v>949.7870431054156</v>
+        <v>1427.704426895328</v>
       </c>
       <c r="W46" t="n">
-        <v>949.7870431054156</v>
+        <v>1148.634762404202</v>
       </c>
       <c r="X46" t="n">
-        <v>949.7870431054156</v>
+        <v>910.2909002638858</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.0513444941803</v>
+        <v>910.2909002638858</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>292.3871721926164</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>534.7878950544006</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,16 +8060,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>173.8482690683349</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>262.438449523616</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
@@ -8227,19 +8227,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P5" t="n">
-        <v>270.21439869122</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875381</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8534,28 +8534,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>499.2964884458365</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>73.48479305079316</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.51835496591212</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>132.2138498390986</v>
+        <v>44.46606656896962</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024792</v>
+        <v>40.06791223185684</v>
       </c>
       <c r="M11" t="n">
-        <v>862.3930403309352</v>
+        <v>491.4611368988973</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8707,10 +8707,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>43.15047232606034</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.11124036999562</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>15.31778311257855</v>
       </c>
       <c r="M12" t="n">
-        <v>840.7218582687126</v>
+        <v>338.7183466319555</v>
       </c>
       <c r="N12" t="n">
         <v>4.325482542992646</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>13.0468876928779</v>
       </c>
       <c r="P12" t="n">
-        <v>108.6506799403931</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>47.33433381251141</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.51835496591212</v>
+        <v>194.3282129353554</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8935,10 +8935,10 @@
         <v>40.06791223185684</v>
       </c>
       <c r="M14" t="n">
-        <v>862.3930403309352</v>
+        <v>862.3930403309348</v>
       </c>
       <c r="N14" t="n">
-        <v>606.4149547711471</v>
+        <v>30.25189413074437</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.11124036999562</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>65.25287031924137</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>25.48513835903767</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>15.31778311257855</v>
       </c>
       <c r="M15" t="n">
-        <v>483.2753149107938</v>
+        <v>9.956411601480013</v>
       </c>
       <c r="N15" t="n">
-        <v>835.0909292102252</v>
+        <v>835.0909292102249</v>
       </c>
       <c r="O15" t="n">
-        <v>13.0468876928779</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>18.38025925244921</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.70820599534544</v>
+        <v>246.3050639105466</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>15.31778311257855</v>
+        <v>344.0797181430538</v>
       </c>
       <c r="M18" t="n">
         <v>9.956411601480013</v>
       </c>
       <c r="N18" t="n">
-        <v>699.4649444304928</v>
+        <v>4.325482542992646</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>13.0468876928779</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>47.33433381251141</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158877</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920624</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>25.48513835903767</v>
       </c>
       <c r="L21" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>9.956411601480013</v>
+        <v>120.9067800016972</v>
       </c>
       <c r="N21" t="n">
         <v>4.325482542992646</v>
@@ -9500,10 +9500,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>284.3064522088544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>47.33433381251141</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920624</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>15.31778311257855</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601480013</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992646</v>
       </c>
       <c r="O24" t="n">
-        <v>236.7670692342406</v>
+        <v>236.5053169362877</v>
       </c>
       <c r="P24" t="n">
         <v>18.38025925244921</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>47.33433381251141</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681353</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920624</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>15.31778311257855</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0041064460642</v>
+        <v>9.956411601480013</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992646</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>341.8088227233532</v>
       </c>
       <c r="P27" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>47.33433381251141</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>15.31778311257855</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601480013</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>333.0874175734679</v>
       </c>
       <c r="O30" t="n">
-        <v>236.7670692342406</v>
+        <v>13.0468876928779</v>
       </c>
       <c r="P30" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>47.33433381251141</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>15.31778311257855</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601480013</v>
       </c>
       <c r="N33" t="n">
-        <v>403.6241367246809</v>
+        <v>4.325482542992646</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>341.8088227233532</v>
       </c>
       <c r="P33" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>47.33433381251141</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>33.61744420588941</v>
+        <v>33.6174442058894</v>
       </c>
       <c r="K36" t="n">
-        <v>25.48513835903767</v>
+        <v>390.4717291970298</v>
       </c>
       <c r="L36" t="n">
-        <v>15.31778311257855</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>377.0041064460642</v>
+        <v>9.95641160147995</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992582</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>13.04688769287783</v>
       </c>
       <c r="P36" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>47.33433381251141</v>
+        <v>47.33433381251139</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248788</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10904,25 +10904,25 @@
         <v>33.6174442058894</v>
       </c>
       <c r="K39" t="n">
-        <v>25.48513835903763</v>
+        <v>390.4717291970298</v>
       </c>
       <c r="L39" t="n">
-        <v>15.3177831125785</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>9.95641160147995</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992582</v>
       </c>
       <c r="O39" t="n">
-        <v>236.7670692342402</v>
+        <v>13.04688769287783</v>
       </c>
       <c r="P39" t="n">
-        <v>18.38025925244916</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.70820599534541</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>47.33433381251139</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>43.51835496591208</v>
       </c>
       <c r="K41" t="n">
-        <v>44.46606656896957</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>862.3930403309353</v>
+        <v>862.3930403309349</v>
       </c>
       <c r="N41" t="n">
-        <v>479.8887096156088</v>
+        <v>30.25189413074429</v>
       </c>
       <c r="O41" t="n">
-        <v>34.02133993162482</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>429.1073604205137</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>52.11124036999557</v>
       </c>
       <c r="R41" t="n">
         <v>65.25287031924134</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>33.6174442058894</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>25.48513835903763</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>407.9577763336193</v>
+        <v>344.0797181430532</v>
       </c>
       <c r="M42" t="n">
-        <v>840.7218582687128</v>
+        <v>9.95641160147995</v>
       </c>
       <c r="N42" t="n">
-        <v>835.0909292102253</v>
+        <v>4.325482542992582</v>
       </c>
       <c r="O42" t="n">
         <v>13.04688769287783</v>
       </c>
       <c r="P42" t="n">
-        <v>18.38025925244916</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.70820599534541</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>47.33433381251139</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>43.51835496591208</v>
       </c>
       <c r="K44" t="n">
-        <v>44.46606656896957</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>862.3930403309353</v>
+        <v>862.3930403309349</v>
       </c>
       <c r="N44" t="n">
-        <v>703.4213661927648</v>
+        <v>30.25189413074429</v>
       </c>
       <c r="O44" t="n">
-        <v>34.02133993162482</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>429.1073604205137</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>52.11124036999557</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>65.25287031924134</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>33.6174442058894</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>15.3177831125785</v>
+        <v>344.0797181430532</v>
       </c>
       <c r="M45" t="n">
-        <v>840.7218582687128</v>
+        <v>9.95641160147995</v>
       </c>
       <c r="N45" t="n">
-        <v>736.9799181417497</v>
+        <v>4.325482542992582</v>
       </c>
       <c r="O45" t="n">
         <v>13.04688769287783</v>
       </c>
       <c r="P45" t="n">
-        <v>18.38025925244916</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.70820599534541</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>47.33433381251139</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.2898298336167</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>35.32840976754358</v>
       </c>
       <c r="I11" t="n">
-        <v>42.79480773997452</v>
+        <v>71.94970840543671</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>125.9259454362165</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33.60186394852761</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>77.33716558595376</v>
       </c>
       <c r="S13" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>236.4801970412658</v>
@@ -23475,13 +23475,13 @@
         <v>279.9615737930588</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>49.25652794347823</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>31.17158073568257</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.4471662669313</v>
       </c>
       <c r="U14" t="n">
-        <v>199.7121040600363</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.7826469229764</v>
+        <v>114.2759540944824</v>
       </c>
       <c r="T16" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>49.25652794347823</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>236.4801970412658</v>
+        <v>206.8954263450339</v>
       </c>
       <c r="U19" t="n">
         <v>279.9615737930588</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>238.7752834867361</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>40.97885091565576</v>
       </c>
       <c r="C22" t="n">
-        <v>68.85992956224547</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H22" t="n">
         <v>146.7108542792373</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S22" t="n">
         <v>181.7826469229764</v>
       </c>
       <c r="T22" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>14.45784856591621</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.4203637486101</v>
+        <v>147.4483933765636</v>
       </c>
       <c r="H25" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>181.7826469229764</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>64.49837286468777</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.4467486034162</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>49.25652794347796</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>77.33716558595376</v>
       </c>
       <c r="S31" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>47.07422189229214</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>23.60445056195016</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H34" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.4454267352886</v>
@@ -25128,22 +25128,22 @@
         <v>181.7826469229764</v>
       </c>
       <c r="T34" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>181.6264041547204</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>11.12092400591482</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>181.7826469229764</v>
       </c>
       <c r="T37" t="n">
-        <v>236.4801970412658</v>
+        <v>180.2251425221647</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S40" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>255.6452836915795</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>7.976634118726224</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.2898298336167</v>
+        <v>13.39807909124778</v>
       </c>
       <c r="H41" t="n">
         <v>304.2029779656798</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>125.9259454362165</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.4471662669313</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.4617931084866</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>111.2659552486374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.93022491212952</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H43" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.7826469229764</v>
@@ -25845,13 +25845,13 @@
         <v>279.9615737930588</v>
       </c>
       <c r="V43" t="n">
-        <v>103.5656788661255</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.2898298336167</v>
       </c>
       <c r="H44" t="n">
-        <v>91.88913066321493</v>
+        <v>304.2029779656798</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>125.9259454362165</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.4617931084866</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>147.6983246297852</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H46" t="n">
         <v>146.7108542792373</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>77.33716558595376</v>
+        <v>28.95456259725974</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T46" t="n">
-        <v>176.703604816594</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>593514.0789936085</v>
+        <v>593514.0789936084</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>593514.0789936084</v>
+        <v>593514.0789936082</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>764675.7534506076</v>
+        <v>764675.7534506075</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>764675.7534506075</v>
+        <v>764675.7534506076</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>764675.7534506075</v>
+        <v>764675.7534506076</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>764675.7534506075</v>
+        <v>764675.7534506076</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>764675.7534506075</v>
+        <v>764675.7534506074</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>764675.7534506076</v>
+        <v>764675.7534506075</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>764675.7534506076</v>
+        <v>764675.7534506075</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>764675.7534506074</v>
+        <v>764675.7534506076</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>593514.0789936084</v>
+        <v>593514.0789936086</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>593514.0789936084</v>
+        <v>593514.0789936082</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>456070.7004908794</v>
+      </c>
+      <c r="C2" t="n">
+        <v>456070.7004908794</v>
+      </c>
+      <c r="D2" t="n">
         <v>456070.7004908795</v>
       </c>
-      <c r="C2" t="n">
-        <v>456070.7004908795</v>
-      </c>
-      <c r="D2" t="n">
-        <v>456070.7004908794</v>
-      </c>
       <c r="E2" t="n">
-        <v>337476.8405169938</v>
+        <v>337476.8405169935</v>
       </c>
       <c r="F2" t="n">
-        <v>337476.8405169937</v>
+        <v>337476.8405169936</v>
       </c>
       <c r="G2" t="n">
         <v>433017.0018496005</v>
       </c>
       <c r="H2" t="n">
-        <v>433017.0018496003</v>
+        <v>433017.0018496005</v>
       </c>
       <c r="I2" t="n">
-        <v>433017.0018495999</v>
+        <v>433017.0018496002</v>
       </c>
       <c r="J2" t="n">
         <v>433017.0018496002</v>
       </c>
       <c r="K2" t="n">
-        <v>433017.0018496002</v>
+        <v>433017.0018495998</v>
       </c>
       <c r="L2" t="n">
+        <v>433017.0018495999</v>
+      </c>
+      <c r="M2" t="n">
+        <v>433017.0018495999</v>
+      </c>
+      <c r="N2" t="n">
         <v>433017.0018496001</v>
-      </c>
-      <c r="M2" t="n">
-        <v>433017.0018496001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>433017.0018495997</v>
       </c>
       <c r="O2" t="n">
         <v>337476.8405169938</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>162351.9691851628</v>
+        <v>162351.9691851627</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>76929.74238076924</v>
+        <v>76929.74238076912</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>232373.2713033891</v>
       </c>
       <c r="C4" t="n">
-        <v>232373.2713033891</v>
+        <v>232373.271303389</v>
       </c>
       <c r="D4" t="n">
         <v>232373.2713033891</v>
       </c>
       <c r="E4" t="n">
-        <v>87883.46562273279</v>
+        <v>87883.46562273278</v>
       </c>
       <c r="F4" t="n">
         <v>87883.46562273279</v>
@@ -26456,10 +26456,10 @@
         <v>115943.7838242577</v>
       </c>
       <c r="O4" t="n">
-        <v>87883.46562273279</v>
+        <v>87883.46562273277</v>
       </c>
       <c r="P4" t="n">
-        <v>87883.46562273281</v>
+        <v>87883.46562273277</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>52414.85404284524</v>
+        <v>52414.85404284522</v>
       </c>
       <c r="F5" t="n">
-        <v>52414.85404284524</v>
+        <v>52414.85404284522</v>
       </c>
       <c r="G5" t="n">
         <v>79278.01907908043</v>
@@ -26493,7 +26493,7 @@
         <v>79278.01907908043</v>
       </c>
       <c r="J5" t="n">
-        <v>79278.01907908045</v>
+        <v>79278.01907908043</v>
       </c>
       <c r="K5" t="n">
         <v>79278.01907908043</v>
@@ -26502,16 +26502,16 @@
         <v>79278.01907908043</v>
       </c>
       <c r="M5" t="n">
-        <v>79278.01907908045</v>
+        <v>79278.01907908046</v>
       </c>
       <c r="N5" t="n">
         <v>79278.01907908046</v>
       </c>
       <c r="O5" t="n">
-        <v>52414.85404284525</v>
+        <v>52414.85404284523</v>
       </c>
       <c r="P5" t="n">
-        <v>52414.85404284525</v>
+        <v>52414.85404284523</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16627.14578412113</v>
+        <v>-16627.14578412139</v>
       </c>
       <c r="C6" t="n">
-        <v>158328.3641089929</v>
+        <v>158328.3641089928</v>
       </c>
       <c r="D6" t="n">
-        <v>158328.3641089927</v>
+        <v>158328.3641089928</v>
       </c>
       <c r="E6" t="n">
-        <v>34826.55166625301</v>
+        <v>34403.00216634612</v>
       </c>
       <c r="F6" t="n">
-        <v>197178.5208514156</v>
+        <v>196754.9713515088</v>
       </c>
       <c r="G6" t="n">
-        <v>116696.6695226352</v>
+        <v>116614.3348846306</v>
       </c>
       <c r="H6" t="n">
-        <v>237795.1989462621</v>
+        <v>237712.8643082577</v>
       </c>
       <c r="I6" t="n">
-        <v>237795.1989462618</v>
+        <v>237712.8643082575</v>
       </c>
       <c r="J6" t="n">
-        <v>101200.3981403669</v>
+        <v>101118.0635023626</v>
       </c>
       <c r="K6" t="n">
-        <v>237795.198946262</v>
+        <v>237712.8643082571</v>
       </c>
       <c r="L6" t="n">
-        <v>237795.1989462619</v>
+        <v>237712.8643082572</v>
       </c>
       <c r="M6" t="n">
-        <v>160865.4565654927</v>
+        <v>160783.1219274881</v>
       </c>
       <c r="N6" t="n">
-        <v>237795.1989462615</v>
+        <v>237712.8643082574</v>
       </c>
       <c r="O6" t="n">
-        <v>197178.5208514157</v>
+        <v>196754.971351509</v>
       </c>
       <c r="P6" t="n">
-        <v>197178.5208514156</v>
+        <v>196754.9713515089</v>
       </c>
     </row>
   </sheetData>
@@ -26770,7 +26770,7 @@
         <v>87.35389382924296</v>
       </c>
       <c r="M3" t="n">
-        <v>87.35389382924296</v>
+        <v>87.35389382924308</v>
       </c>
       <c r="N3" t="n">
         <v>87.35389382924308</v>
@@ -26798,10 +26798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>830.7654466672326</v>
+        <v>830.7654466672323</v>
       </c>
       <c r="F4" t="n">
-        <v>830.7654466672326</v>
+        <v>830.7654466672323</v>
       </c>
       <c r="G4" t="n">
         <v>1272.593818973733</v>
@@ -26828,10 +26828,10 @@
         <v>1272.593818973733</v>
       </c>
       <c r="O4" t="n">
-        <v>830.7654466672328</v>
+        <v>830.7654466672325</v>
       </c>
       <c r="P4" t="n">
-        <v>830.7654466672328</v>
+        <v>830.7654466672325</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>308.701876297207</v>
+        <v>308.7018762972068</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>441.8283723065</v>
+        <v>441.8283723065003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700258</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>308.7018762972073</v>
+        <v>308.7018762972068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>308.701876297207</v>
+        <v>308.7018762972068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>441.8283723065</v>
+        <v>441.8283723065003</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>399.9010306153818</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>36.48256044511936</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>99.78344293045848</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>62.25267182945228</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>85.31459308330852</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>212.5885579978965</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>201.6033255566086</v>
+        <v>209.7999067317758</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -27839,7 +27839,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>145.411143792297</v>
+        <v>142.3384501136874</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>107.2043604288747</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3511714324793684</v>
+        <v>0.3511714324793689</v>
       </c>
       <c r="H35" t="n">
-        <v>3.596434432879333</v>
+        <v>3.596434432879338</v>
       </c>
       <c r="I35" t="n">
-        <v>13.53853665066086</v>
+        <v>13.53853665066088</v>
       </c>
       <c r="J35" t="n">
-        <v>29.80523636739582</v>
+        <v>29.80523636739586</v>
       </c>
       <c r="K35" t="n">
-        <v>44.6703231042475</v>
+        <v>44.67032310424756</v>
       </c>
       <c r="L35" t="n">
-        <v>55.41748583098798</v>
+        <v>55.41748583098806</v>
       </c>
       <c r="M35" t="n">
-        <v>61.66263079334295</v>
+        <v>61.66263079334303</v>
       </c>
       <c r="N35" t="n">
-        <v>62.66039662587496</v>
+        <v>62.66039662587504</v>
       </c>
       <c r="O35" t="n">
-        <v>59.16843569415823</v>
+        <v>59.16843569415831</v>
       </c>
       <c r="P35" t="n">
-        <v>50.49889095482382</v>
+        <v>50.49889095482389</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.92256402915643</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R35" t="n">
-        <v>22.05927249548215</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S35" t="n">
-        <v>8.002319017623616</v>
+        <v>8.002319017623627</v>
       </c>
       <c r="T35" t="n">
-        <v>1.537252945678436</v>
+        <v>1.537252945678438</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02809371459834947</v>
+        <v>0.0280937145983495</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1878932810666736</v>
+        <v>0.1878932810666738</v>
       </c>
       <c r="H36" t="n">
-        <v>1.814653530301821</v>
+        <v>1.814653530301823</v>
       </c>
       <c r="I36" t="n">
-        <v>6.46913270339205</v>
+        <v>6.469132703392059</v>
       </c>
       <c r="J36" t="n">
-        <v>17.7517945941106</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K36" t="n">
-        <v>30.34064442557772</v>
+        <v>30.34064442557776</v>
       </c>
       <c r="L36" t="n">
-        <v>40.7967406982705</v>
+        <v>40.79674069827055</v>
       </c>
       <c r="M36" t="n">
-        <v>47.60787213693741</v>
+        <v>47.60787213693747</v>
       </c>
       <c r="N36" t="n">
-        <v>48.86791085075735</v>
+        <v>48.86791085075741</v>
       </c>
       <c r="O36" t="n">
-        <v>44.7045913071221</v>
+        <v>44.70459130712216</v>
       </c>
       <c r="P36" t="n">
-        <v>35.87937575035453</v>
+        <v>35.87937575035458</v>
       </c>
       <c r="Q36" t="n">
-        <v>23.98441250949328</v>
+        <v>23.98441250949331</v>
       </c>
       <c r="R36" t="n">
-        <v>11.665865292894</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S36" t="n">
-        <v>3.490035286479658</v>
+        <v>3.490035286479662</v>
       </c>
       <c r="T36" t="n">
-        <v>0.757341777632776</v>
+        <v>0.757341777632777</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0123614000701759</v>
+        <v>0.01236140007017591</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1575234151019135</v>
+        <v>0.1575234151019137</v>
       </c>
       <c r="H37" t="n">
-        <v>1.40052636336065</v>
+        <v>1.400526363360652</v>
       </c>
       <c r="I37" t="n">
-        <v>4.737158701428456</v>
+        <v>4.737158701428462</v>
       </c>
       <c r="J37" t="n">
-        <v>11.13690544770528</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K37" t="n">
-        <v>18.30135677274959</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L37" t="n">
-        <v>23.4194357325154</v>
+        <v>23.41943573251543</v>
       </c>
       <c r="M37" t="n">
-        <v>24.69251133274813</v>
+        <v>24.69251133274816</v>
       </c>
       <c r="N37" t="n">
-        <v>24.10537860373193</v>
+        <v>24.10537860373196</v>
       </c>
       <c r="O37" t="n">
-        <v>22.2652187091323</v>
+        <v>22.26521870913232</v>
       </c>
       <c r="P37" t="n">
-        <v>19.05174104105324</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.19043796821569</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R37" t="n">
-        <v>7.082825555400583</v>
+        <v>7.082825555400592</v>
       </c>
       <c r="S37" t="n">
-        <v>2.745203515912437</v>
+        <v>2.745203515912441</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6730545917990849</v>
+        <v>0.6730545917990858</v>
       </c>
       <c r="U37" t="n">
-        <v>0.008592186278286201</v>
+        <v>0.008592186278286213</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>441.8756042977813</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>209.245056129866</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P5" t="n">
-        <v>176.5650354103359</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430327</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>14.48459394538775</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>286.5582378499759</v>
       </c>
       <c r="K11" t="n">
-        <v>87.74778327012898</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>775.2067785706223</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>830.7654466672326</v>
+        <v>459.8335432351948</v>
       </c>
       <c r="N11" t="n">
         <v>823.4493023214486</v>
@@ -35427,10 +35427,10 @@
         <v>709.3006138932541</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>362.3276213981383</v>
       </c>
       <c r="R11" t="n">
         <v>63.02558127282035</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>830.7654466672326</v>
+        <v>328.7619350304755</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>755.7723595352982</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>90.2704206879439</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q12" t="n">
         <v>377.362659665032</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>41.52396565918682</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>150.8098579694433</v>
       </c>
       <c r="K14" t="n">
         <v>588.2657787699439</v>
@@ -35655,10 +35655,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>830.7654466672326</v>
+        <v>830.7654466672323</v>
       </c>
       <c r="N14" t="n">
-        <v>576.1630606404027</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>709.3006138932541</v>
@@ -35667,10 +35667,10 @@
         <v>585.0006060246737</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>362.3276213981383</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.02558127282035</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>708.5625709197737</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>473.3189033093138</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>830.7654466672326</v>
+        <v>830.7654466672323</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>755.7723595352982</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>213.5968579152012</v>
       </c>
       <c r="R15" t="n">
         <v>41.52396565918682</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>328.7619350304753</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>695.1394618875001</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>755.7723595352982</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>603.2590651327081</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>41.52396565918682</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>286.5582378499756</v>
+        <v>286.5582378499759</v>
       </c>
       <c r="K20" t="n">
         <v>588.2657787699439</v>
@@ -36144,7 +36144,7 @@
         <v>362.3276213981383</v>
       </c>
       <c r="R20" t="n">
-        <v>63.02558127282035</v>
+        <v>63.02558127282107</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K21" t="n">
-        <v>490.7510042895158</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>708.5625709197737</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>110.9503684002172</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>603.2590651327081</v>
       </c>
       <c r="Q21" t="n">
-        <v>251.5982462135089</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>41.52396565918682</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>362.3276213981383</v>
       </c>
       <c r="R23" t="n">
-        <v>63.02558127282035</v>
+        <v>63.02558127282107</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>708.5625709197737</v>
       </c>
       <c r="M24" t="n">
-        <v>899.0998728385199</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>931.3508321756239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>223.7201815413626</v>
+        <v>223.4584292434098</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>41.52396565918682</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>585.0006060246737</v>
       </c>
       <c r="Q26" t="n">
-        <v>362.3276213981396</v>
+        <v>362.3276213981383</v>
       </c>
       <c r="R26" t="n">
-        <v>63.02558127282035</v>
+        <v>63.02558127282107</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>367.0476948445842</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>931.3508321756239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>755.7723595352982</v>
+        <v>328.7619350304753</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>41.52396565918682</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36767,7 +36767,7 @@
         <v>307.7809163757019</v>
       </c>
       <c r="O28" t="n">
-        <v>284.4476533823385</v>
+        <v>284.4476533823412</v>
       </c>
       <c r="P28" t="n">
         <v>226.8047109901567</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>899.0998728385199</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>931.3508321756239</v>
+        <v>328.7619350304753</v>
       </c>
       <c r="O30" t="n">
-        <v>223.7201815413626</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>41.52396565918682</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>899.0998728385199</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>399.2986541816882</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>755.7723595352982</v>
+        <v>328.7619350304753</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>41.52396565918682</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>286.5582378499759</v>
+        <v>286.558237849976</v>
       </c>
       <c r="K35" t="n">
-        <v>588.2657787699439</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L35" t="n">
-        <v>775.2067785706223</v>
+        <v>775.2067785706224</v>
       </c>
       <c r="M35" t="n">
-        <v>845.8228237143065</v>
+        <v>845.8228237143067</v>
       </c>
       <c r="N35" t="n">
-        <v>823.4493023214486</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O35" t="n">
-        <v>709.3006138932541</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0006060246737</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q35" t="n">
         <v>362.3276213981383</v>
       </c>
       <c r="R35" t="n">
-        <v>63.02558127282035</v>
+        <v>63.02558127282038</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>364.9865908379921</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>708.5625709197739</v>
       </c>
       <c r="M36" t="n">
-        <v>367.0476948445842</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>931.3508321756239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>755.7723595352982</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>25.36170282670581</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K37" t="n">
         <v>174.4148191184445</v>
@@ -37478,13 +37478,13 @@
         <v>307.7809163757019</v>
       </c>
       <c r="O37" t="n">
-        <v>284.4476533823385</v>
+        <v>284.4476533823386</v>
       </c>
       <c r="P37" t="n">
         <v>226.8047109901567</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.38036706166098</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>823.4493023214487</v>
       </c>
       <c r="O38" t="n">
-        <v>709.3006138932542</v>
+        <v>709.3006138932541</v>
       </c>
       <c r="P38" t="n">
         <v>585.0006060246739</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>364.9865908379921</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>708.5625709197739</v>
       </c>
       <c r="M39" t="n">
-        <v>899.0998728385199</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>931.350832175624</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>223.7201815413624</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>286.558237849976</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L41" t="n">
         <v>775.2067785706224</v>
       </c>
       <c r="M41" t="n">
-        <v>830.7654466672328</v>
+        <v>830.7654466672325</v>
       </c>
       <c r="N41" t="n">
-        <v>449.6368154848645</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0006060246739</v>
+        <v>385.9568880944534</v>
       </c>
       <c r="Q41" t="n">
-        <v>362.3276213981383</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L42" t="n">
-        <v>392.6399932210409</v>
+        <v>328.7619350304747</v>
       </c>
       <c r="M42" t="n">
-        <v>830.7654466672328</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>830.7654466672328</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>41.52396565918684</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L44" t="n">
         <v>775.2067785706224</v>
       </c>
       <c r="M44" t="n">
-        <v>830.7654466672328</v>
+        <v>830.7654466672325</v>
       </c>
       <c r="N44" t="n">
-        <v>673.1694720620205</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P44" t="n">
-        <v>585.0006060246739</v>
+        <v>385.9568880944534</v>
       </c>
       <c r="Q44" t="n">
-        <v>362.3276213981383</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.02558127282038</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K45" t="n">
         <v>490.7510042895158</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>328.7619350304747</v>
       </c>
       <c r="M45" t="n">
-        <v>830.7654466672328</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>732.6544355987571</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>41.52396565918684</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
